--- a/data/outputs/能源化工元源数据文件_elsevier/46(2)SOLAR ENERGY MATERIALS AND SOLAR CELLS.xlsx
+++ b/data/outputs/能源化工元源数据文件_elsevier/46(2)SOLAR ENERGY MATERIALS AND SOLAR CELLS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS22"/>
+  <dimension ref="A1:BU22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -947,6 +957,12 @@
           <t>2-s2.0-84907506623</t>
         </is>
       </c>
+      <c r="BT2" t="n">
+        <v>1583</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1164,6 +1180,12 @@
           <t>2-s2.0-84907532771</t>
         </is>
       </c>
+      <c r="BT3" t="n">
+        <v>1256</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1387,6 +1409,12 @@
           <t>2-s2.0-84907501168</t>
         </is>
       </c>
+      <c r="BT4" t="n">
+        <v>1450</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1604,6 +1632,12 @@
           <t>2-s2.0-84907495486</t>
         </is>
       </c>
+      <c r="BT5" t="n">
+        <v>1191</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1821,6 +1855,12 @@
           <t>2-s2.0-84907611132</t>
         </is>
       </c>
+      <c r="BT6" t="n">
+        <v>876</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2038,6 +2078,12 @@
           <t>2-s2.0-84907601888</t>
         </is>
       </c>
+      <c r="BT7" t="n">
+        <v>1163</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2255,6 +2301,12 @@
           <t>2-s2.0-84907654582</t>
         </is>
       </c>
+      <c r="BT8" t="n">
+        <v>1629</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2464,6 +2516,12 @@
           <t>2-s2.0-84924350121</t>
         </is>
       </c>
+      <c r="BT9" t="n">
+        <v>2459</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2679,6 +2737,12 @@
           <t>2-s2.0-84907612742</t>
         </is>
       </c>
+      <c r="BT10" t="n">
+        <v>4844</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2900,6 +2964,12 @@
           <t>2-s2.0-84907652269</t>
         </is>
       </c>
+      <c r="BT11" t="n">
+        <v>1974</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3109,6 +3179,12 @@
           <t>2-s2.0-84907669568</t>
         </is>
       </c>
+      <c r="BT12" t="n">
+        <v>727</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3314,6 +3390,12 @@
           <t>2-s2.0-84907670971</t>
         </is>
       </c>
+      <c r="BT13" t="n">
+        <v>1919</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3539,6 +3621,12 @@
           <t>2-s2.0-84907834006</t>
         </is>
       </c>
+      <c r="BT14" t="n">
+        <v>1170</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3760,6 +3848,12 @@
           <t>2-s2.0-84908391334</t>
         </is>
       </c>
+      <c r="BT15" t="n">
+        <v>2471</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3961,6 +4055,12 @@
           <t>2-s2.0-84908446801</t>
         </is>
       </c>
+      <c r="BT16" t="n">
+        <v>1226</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4186,6 +4286,12 @@
           <t>2-s2.0-84908432659</t>
         </is>
       </c>
+      <c r="BT17" t="n">
+        <v>3519</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4403,6 +4509,12 @@
           <t>2-s2.0-84908330800</t>
         </is>
       </c>
+      <c r="BT18" t="n">
+        <v>2429</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4628,6 +4740,12 @@
           <t>2-s2.0-84908517773</t>
         </is>
       </c>
+      <c r="BT19" t="n">
+        <v>13951</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>82</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4849,6 +4967,12 @@
           <t>2-s2.0-84908395626</t>
         </is>
       </c>
+      <c r="BT20" t="n">
+        <v>2550</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5062,6 +5186,12 @@
           <t>2-s2.0-84911058877</t>
         </is>
       </c>
+      <c r="BT21" t="n">
+        <v>1791</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5287,6 +5417,12 @@
           <t>2-s2.0-84943169063</t>
         </is>
       </c>
+      <c r="BT22" t="n">
+        <v>1049</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
